--- a/cv/job_satisfaction_predictor.xlsx
+++ b/cv/job_satisfaction_predictor.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="15180" windowHeight="16230"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="15180" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t>comp</t>
-  </si>
-  <si>
     <t>realize %%potential? LG</t>
   </si>
   <si>
-    <t>real criteria for 5Y career planning</t>
-  </si>
-  <si>
     <t>mkt depth #=}job security</t>
   </si>
   <si>
@@ -48,9 +42,6 @@
     <t>Barc</t>
   </si>
   <si>
-    <t>retrospectively</t>
-  </si>
-  <si>
     <t>unk</t>
   </si>
   <si>
@@ -60,9 +51,6 @@
     <t>4 #workload</t>
   </si>
   <si>
-    <t>satisfication therein (0-5)</t>
-  </si>
-  <si>
     <t>1 #py</t>
   </si>
   <si>
@@ -73,9 +61,6 @@
   </si>
   <si>
     <t>--Criteria roughly ranked--</t>
-  </si>
-  <si>
-    <t>engaged [1] # no impact on retro!</t>
   </si>
   <si>
     <t>impact/value? Overvalued</t>
@@ -94,21 +79,47 @@
 #stress;relative to team</t>
   </si>
   <si>
-    <t>Stirt</t>
-  </si>
-  <si>
-    <t>1 # Sundip</t>
+    <t>Qz</t>
+  </si>
+  <si>
+    <t>[1=see explanations in blog]</t>
+  </si>
+  <si>
+    <t>...in retrospect (0-5)</t>
+  </si>
+  <si>
+    <t>1 #Sundip</t>
+  </si>
+  <si>
+    <t>total comp #benefits</t>
+  </si>
+  <si>
+    <t>traction, engaging[1] #no impact on retro!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">satisfication then-n-there </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>↘</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -116,17 +127,36 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -156,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -169,6 +199,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,56 +507,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I20"/>
+  <dimension ref="B2:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.875" customWidth="1"/>
+    <col min="2" max="2" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9">
       <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>14</v>
+    </row>
+    <row r="3" spans="2:9" ht="15">
+      <c r="B3" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -538,21 +569,21 @@
         <v>3</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I3" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9">
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -568,7 +599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9">
       <c r="B5" s="4"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3"/>
@@ -578,9 +609,9 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9">
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -590,12 +621,12 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="27">
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -616,7 +647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -626,15 +657,15 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9">
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
@@ -643,7 +674,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H9" s="1">
         <v>5</v>
@@ -652,9 +683,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9">
       <c r="B10" s="1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -678,7 +709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -688,9 +719,9 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="27">
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -714,7 +745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -724,15 +755,15 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9">
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
@@ -741,16 +772,16 @@
         <v>2</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I14" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -760,8 +791,10 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
+    <row r="16" spans="2:9">
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -770,7 +803,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -780,10 +813,8 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
+    <row r="18" spans="2:9">
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -792,9 +823,9 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9">
       <c r="B19" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -804,9 +835,9 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9">
       <c r="B20" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -815,6 +846,11 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -828,7 +864,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -840,7 +876,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cv/job_satisfaction_predictor.xlsx
+++ b/cv/job_satisfaction_predictor.xlsx
@@ -510,7 +510,7 @@
   <dimension ref="B2:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -648,66 +648,66 @@
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
       <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
       </c>
       <c r="H9" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I9" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>4</v>
-      </c>
-      <c r="G10" s="1">
-        <v>3</v>
-      </c>
-      <c r="H10" s="1">
-        <v>2</v>
-      </c>
-      <c r="I10" s="1">
-        <v>4</v>
-      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="1"/>

--- a/cv/job_satisfaction_predictor.xlsx
+++ b/cv/job_satisfaction_predictor.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>realize %%potential? LG</t>
   </si>
@@ -24,9 +24,6 @@
     <t>mkt depth #=}job security</t>
   </si>
   <si>
-    <t>strategic tsn? White elephant</t>
-  </si>
-  <si>
     <t>Mac</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
   </si>
   <si>
     <t>4 #bond</t>
-  </si>
-  <si>
-    <t>--Criteria roughly ranked--</t>
   </si>
   <si>
     <t>impact/value? Overvalued</t>
@@ -97,18 +91,17 @@
     <t>traction, engaging[1] #no impact on retro!</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">satisfication then-n-there </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>↘</t>
-    </r>
+    <t>1 #curve 
+building</t>
+  </si>
+  <si>
+    <t>..strategic tsn? White elephant</t>
+  </si>
+  <si>
+    <t>satisfication then-n-there ↘</t>
+  </si>
+  <si>
+    <t>----- Criteria ranked</t>
   </si>
 </sst>
 </file>
@@ -124,24 +117,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Arial Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -159,7 +151,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -182,29 +174,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,50 +529,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I22"/>
+  <dimension ref="B2:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="0.875" customWidth="1"/>
-    <col min="2" max="2" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="1"/>
-      <c r="C2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="15">
-      <c r="B3" s="8" t="s">
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="1">
@@ -569,135 +593,135 @@
         <v>3</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I3" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="6">
         <v>0</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>18</v>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="3">
-        <v>2</v>
-      </c>
-      <c r="G4" s="3">
-        <v>3</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3">
+      <c r="F4" s="6">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6">
+        <v>3</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="4"/>
+      <c r="B5" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="3"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="2:9" ht="27">
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:9" ht="33">
+      <c r="B6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1">
         <v>0</v>
       </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1">
         <v>5</v>
       </c>
-      <c r="G7" s="1">
-        <v>3</v>
-      </c>
-      <c r="H7" s="1">
-        <v>4</v>
-      </c>
       <c r="I7" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
       <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
       </c>
       <c r="H8" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>4</v>
-      </c>
-      <c r="G9" s="1">
-        <v>3</v>
-      </c>
-      <c r="H9" s="1">
-        <v>2</v>
-      </c>
-      <c r="I9" s="1">
-        <v>4</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="1"/>
@@ -719,12 +743,12 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="2:9" ht="27">
-      <c r="B12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
+    <row r="12" spans="2:9">
+      <c r="B12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
@@ -742,12 +766,14 @@
         <v>4</v>
       </c>
       <c r="I12" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="10"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -756,45 +782,43 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="1">
-        <v>2</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -814,7 +838,9 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -825,7 +851,7 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -835,24 +861,15 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" t="s">
-        <v>21</v>
+    <row r="21" spans="2:9">
+      <c r="B21" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C12:C13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/cv/job_satisfaction_predictor.xlsx
+++ b/cv/job_satisfaction_predictor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="15180" windowHeight="12240"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="15180" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,18 +21,12 @@
     <t>realize %%potential? LG</t>
   </si>
   <si>
-    <t>mkt depth #=}job security</t>
-  </si>
-  <si>
     <t>Mac</t>
   </si>
   <si>
     <t>Citi</t>
   </si>
   <si>
-    <t>ICE</t>
-  </si>
-  <si>
     <t>95G</t>
   </si>
   <si>
@@ -58,9 +52,6 @@
   </si>
   <si>
     <t>impact/value? Overvalued</t>
-  </si>
-  <si>
-    <t>3 #MD</t>
   </si>
   <si>
     <t>Vz</t>
@@ -102,17 +93,26 @@
   </si>
   <si>
     <t>----- Criteria ranked</t>
+  </si>
+  <si>
+    <t>RTS</t>
+  </si>
+  <si>
+    <t>mkt depth #MD=}job security</t>
+  </si>
+  <si>
+    <t>2 #py+devop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -531,51 +531,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -587,27 +587,27 @@
         <v>3</v>
       </c>
       <c r="F3" s="1">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
         <v>4</v>
       </c>
-      <c r="G3" s="1">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="I3" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6">
         <v>0</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -618,14 +618,16 @@
       <c r="G4" s="6">
         <v>3</v>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="6">
+        <v>4</v>
+      </c>
       <c r="I4" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -635,12 +637,12 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="2:9" ht="33">
+    <row r="6" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -661,24 +663,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="H7" s="1">
         <v>5</v>
@@ -687,9 +689,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -713,7 +715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -723,7 +725,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -733,7 +735,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -743,12 +745,12 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
@@ -769,19 +771,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="2:9">
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -791,15 +803,15 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -808,16 +820,16 @@
         <v>2</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I15" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -827,7 +839,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -837,9 +849,9 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -849,7 +861,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
@@ -861,9 +873,9 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -881,7 +893,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -893,7 +905,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cv/job_satisfaction_predictor.xlsx
+++ b/cv/job_satisfaction_predictor.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>realize %%potential? LG</t>
   </si>
@@ -39,9 +39,6 @@
     <t>3 #leaves</t>
   </si>
   <si>
-    <t>4 #workload</t>
-  </si>
-  <si>
     <t>1 #py</t>
   </si>
   <si>
@@ -60,10 +57,6 @@
     <t>0 #appr</t>
   </si>
   <si>
-    <t>appreciation/appraisal by boss
-#stress;relative to team</t>
-  </si>
-  <si>
     <t>Qz</t>
   </si>
   <si>
@@ -74,9 +67,6 @@
   </si>
   <si>
     <t>1 #Sundip</t>
-  </si>
-  <si>
-    <t>total comp #benefits</t>
   </si>
   <si>
     <t>traction, engaging[1] #no impact on retro!</t>
@@ -102,6 +92,22 @@
   </si>
   <si>
     <t>2 #py+devop</t>
+  </si>
+  <si>
+    <t>OC</t>
+  </si>
+  <si>
+    <t>total comp+ben #5=top@mkt</t>
+  </si>
+  <si>
+    <t>appreciation/appraisal by boss
+#relative to team</t>
+  </si>
+  <si>
+    <t>workload !!bonus-related</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -529,105 +535,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I21"/>
+  <dimension ref="B2:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="0.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="3"/>
+    <col min="2" max="2" width="28.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1">
-        <v>4</v>
-      </c>
-      <c r="I3" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6">
-        <v>2</v>
-      </c>
       <c r="G4" s="6">
         <v>3</v>
       </c>
       <c r="H4" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I4" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="J4" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -636,86 +650,96 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1">
         <v>0</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E6" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="1">
+        <v>5</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="1">
-        <v>5</v>
-      </c>
-      <c r="I7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>4</v>
-      </c>
       <c r="G8" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -724,8 +748,9 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -734,8 +759,9 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -744,92 +770,119 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="1">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
       </c>
       <c r="F12" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G12" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H12" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1">
-        <v>2</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="1"/>
       <c r="G13" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H13" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I13" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4</v>
+      </c>
+      <c r="J14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="1">
-        <v>2</v>
-      </c>
       <c r="F15" s="1">
         <v>2</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>4</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -838,8 +891,9 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -848,10 +902,11 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -860,8 +915,9 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
@@ -872,15 +928,16 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="1"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/cv/job_satisfaction_predictor.xlsx
+++ b/cv/job_satisfaction_predictor.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>realize %%potential? LG</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Qz</t>
-  </si>
-  <si>
-    <t>[1=see explanations in blog]</t>
   </si>
   <si>
     <t>...in retrospect (0-5)</t>
@@ -108,6 +105,12 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>I don't want to relocate this to wordpress table because I need to add columns frequently.</t>
+  </si>
+  <si>
+    <t>[1=see explanations in blog https://bintanvictor.wordpress.com/2018/03/21/predict-next-5y-job-satisfaction/]</t>
   </si>
 </sst>
 </file>
@@ -535,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J21"/>
+  <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -559,7 +562,7 @@
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>13</v>
@@ -577,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>3</v>
@@ -585,7 +588,7 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
@@ -612,7 +615,7 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -627,13 +630,13 @@
         <v>1</v>
       </c>
       <c r="G4" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" s="6">
         <v>2</v>
       </c>
       <c r="I4" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" s="6">
         <v>5</v>
@@ -641,7 +644,7 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -654,13 +657,13 @@
     </row>
     <row r="6" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -683,7 +686,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -712,7 +715,7 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -774,13 +777,13 @@
     </row>
     <row r="12" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
@@ -803,12 +806,12 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="10"/>
       <c r="E13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1">
@@ -826,7 +829,7 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
@@ -838,7 +841,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" s="1">
         <v>4</v>
@@ -932,7 +935,12 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/cv/job_satisfaction_predictor.xlsx
+++ b/cv/job_satisfaction_predictor.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>realize %%potential? LG</t>
   </si>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t>[1=see explanations in blog https://bintanvictor.wordpress.com/2018/03/21/predict-next-5y-job-satisfaction/]</t>
+  </si>
+  <si>
+    <t>3 #lowLevel</t>
+  </si>
+  <si>
+    <t>1 #devops</t>
+  </si>
+  <si>
+    <t>4 #SQL,thread</t>
+  </si>
+  <si>
+    <t>per adv #theoretical,accu...</t>
   </si>
 </sst>
 </file>
@@ -538,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J22"/>
+  <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -554,11 +566,12 @@
     <col min="6" max="6" width="3.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
@@ -686,60 +699,60 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2</v>
-      </c>
       <c r="G7" s="1">
-        <v>2</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3</v>
       </c>
       <c r="I7" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1">
-        <v>5</v>
-      </c>
-      <c r="H8" s="1">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="I8" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
@@ -765,15 +778,33 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">

--- a/cv/job_satisfaction_predictor.xlsx
+++ b/cv/job_satisfaction_predictor.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>realize %%potential? LG</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>per adv #theoretical,accu...</t>
+  </si>
+  <si>
+    <t>4 despite MD</t>
   </si>
 </sst>
 </file>
@@ -553,7 +556,7 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -564,7 +567,7 @@
     <col min="4" max="4" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" style="3" customWidth="1"/>
@@ -642,11 +645,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="6">
-        <v>4</v>
+      <c r="G4" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="H4" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" s="6">
         <v>3</v>
@@ -756,15 +759,33 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
@@ -778,33 +799,15 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5</v>
-      </c>
-      <c r="H11" s="1">
-        <v>2</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
